--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2779</v>
+        <v>98968</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Pereira</t>
+          <t>Sarah Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>9416.82</v>
+        <v>10323.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50533</v>
+        <v>97160</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Felipe Gomes</t>
+          <t>Marcelo Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G3" t="n">
-        <v>9687.559999999999</v>
+        <v>11497.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57757</v>
+        <v>92406</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carolina Freitas</t>
+          <t>Maria Eduarda Novaes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>3603.97</v>
+        <v>5530.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72891</v>
+        <v>47088</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Erick da Mata</t>
+          <t>Mariana Duarte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>6771.33</v>
+        <v>11550.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54007</v>
+        <v>47553</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Oliveira</t>
+          <t>Bruna Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>5267.91</v>
+        <v>12458.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3921</v>
+        <v>64689</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Henrique Farias</t>
+          <t>Sra. Larissa Farias</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>11757.2</v>
+        <v>4229.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30418</v>
+        <v>35807</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isabelly Cardoso</t>
+          <t>Enzo Gabriel Rodrigues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>6106.65</v>
+        <v>8658.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89576</v>
+        <v>57576</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Silva</t>
+          <t>Elisa Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>5946.35</v>
+        <v>11031.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27845</v>
+        <v>69572</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Guilherme Jesus</t>
+          <t>Srta. Sophie Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>11927.74</v>
+        <v>9132.059999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72062</v>
+        <v>42478</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Vitória da Rocha</t>
+          <t>Maria Sophia Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>9022.33</v>
+        <v>6101.89</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98968</v>
+        <v>78748</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah Caldeira</t>
+          <t>Melissa Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>10323.35</v>
+        <v>11403.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97160</v>
+        <v>84457</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcelo Viana</t>
+          <t>Miguel da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>11497.35</v>
+        <v>8728.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92406</v>
+        <v>98998</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Eduarda Novaes</t>
+          <t>Ana Sophia Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>5530.39</v>
+        <v>5329.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47088</v>
+        <v>8058</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mariana Duarte</t>
+          <t>Maysa Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>11550.95</v>
+        <v>2817.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47553</v>
+        <v>65970</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Azevedo</t>
+          <t>Laura Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>12458.92</v>
+        <v>4388.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64689</v>
+        <v>4181</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Larissa Farias</t>
+          <t>Valentina Martins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>4229.83</v>
+        <v>2678.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35807</v>
+        <v>84337</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Rodrigues</t>
+          <t>Lara da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>8658.17</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57576</v>
+        <v>22653</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Melo</t>
+          <t>Ana Ramos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>11031.22</v>
+        <v>6423.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69572</v>
+        <v>72909</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Sophie Fernandes</t>
+          <t>Brenda Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,26 +722,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>9132.059999999999</v>
+        <v>5099.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42478</v>
+        <v>6888</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Sophia Mendes</t>
+          <t>Lucca Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>6101.89</v>
+        <v>12245.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78748</v>
+        <v>62448</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Melissa Caldeira</t>
+          <t>Sophie da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,114 +494,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>11403.46</v>
+        <v>2957.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84457</v>
+        <v>87667</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miguel da Cunha</t>
+          <t>Matheus Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>8728.76</v>
+        <v>6526.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98998</v>
+        <v>38037</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia Costela</t>
+          <t>Camila da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>5329.3</v>
+        <v>9683.629999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8058</v>
+        <v>25956</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maysa Gonçalves</t>
+          <t>Paulo Sales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>2817.66</v>
+        <v>9584.110000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65970</v>
+        <v>1901</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura Correia</t>
+          <t>Srta. Elisa Moreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>4388.12</v>
+        <v>11652.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4181</v>
+        <v>45607</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valentina Martins</t>
+          <t>Thiago Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,109 +639,109 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>2678.12</v>
+        <v>7075.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84337</v>
+        <v>10239</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara da Cunha</t>
+          <t>Maria Julia da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45081</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11302</v>
+        <v>7869.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22653</v>
+        <v>21843</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Ramos</t>
+          <t>Sofia Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G9" t="n">
-        <v>6423.26</v>
+        <v>9790.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72909</v>
+        <v>58831</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Aragão</t>
+          <t>Luana Oliveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>5099.32</v>
+        <v>9259.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6888</v>
+        <v>73738</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucca Souza</t>
+          <t>Larissa Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>12245.6</v>
+        <v>3392.14</v>
       </c>
     </row>
   </sheetData>
